--- a/FILES/TV_GPIO配置.xlsx
+++ b/FILES/TV_GPIO配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="4" r:id="rId1"/>
-    <sheet name="举升灯光电路板" sheetId="1" r:id="rId2"/>
+    <sheet name="观光车" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -53,31 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PD0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD1</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
-    <t>PD3</t>
-  </si>
-  <si>
-    <t>PD4</t>
-  </si>
-  <si>
-    <t>PD5</t>
-  </si>
-  <si>
-    <t>PD6</t>
-  </si>
-  <si>
-    <t>PD7</t>
-  </si>
-  <si>
     <t>喇叭继电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,26 +129,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>速度读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PE0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挡位D(48V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,135 +153,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PD8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF1</t>
-  </si>
-  <si>
-    <t>PF2</t>
-  </si>
-  <si>
-    <t>PF3</t>
+    <t>PF5</t>
+  </si>
+  <si>
+    <t>PF6</t>
+  </si>
+  <si>
+    <t>PF10</t>
+  </si>
+  <si>
+    <t>开发板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加角度传感器 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加角度传感器 B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭矩1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3 CH1 输出 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3 CH2 输入 </t>
+  </si>
+  <si>
+    <t>扭矩2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转角S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转角P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2 CH3 输出 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM2 CH4 输入 </t>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油门信号输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油门信号输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1 CH1输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1 CH2输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4 CH1 输出  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4 CH2 输入  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM5 CH2 输入 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM5 CH1 输出 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD0(PF4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1(PF3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2(PF2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD3(PF1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD4(PF0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD5(PE6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD6(PE5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD7(PE4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD8(PE3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD9(PE2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0(PC2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE0(PE11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF11(PD13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF9(PD12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF7(PD14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PF4</t>
-  </si>
-  <si>
-    <t>PF5</t>
-  </si>
-  <si>
-    <t>PF6</t>
-  </si>
-  <si>
-    <t>PF7</t>
-  </si>
-  <si>
-    <t>PF9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF10</t>
-  </si>
-  <si>
-    <t>PF11</t>
-  </si>
-  <si>
-    <t>开发板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加角度传感器 A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加角度传感器 B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扭矩1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3 CH1 输出 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3 CH2 输入 </t>
-  </si>
-  <si>
-    <t>扭矩2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3 CH3 输出 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3 CH4 输入 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转角S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转角P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM2 CH3 输出 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM2 CH4 输入 </t>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油门信号输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油门信号输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1 CH1输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1 CH2输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM4 CH1 输出  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM4 CH2 输入  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF0(PB8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF1(PB9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF2(PE13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF3(PE14)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,13 +379,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -439,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,35 +488,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,12 +543,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -825,24 +869,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
@@ -851,7 +895,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -862,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -876,9 +920,9 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="D6" s="17"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -890,9 +934,9 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
@@ -902,9 +946,9 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
@@ -914,9 +958,9 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
@@ -926,9 +970,9 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
@@ -938,9 +982,9 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
@@ -950,46 +994,46 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -997,346 +1041,346 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="12"/>
+      <c r="B19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="12"/>
+      <c r="B20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="12"/>
+      <c r="B21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="12"/>
+      <c r="B24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>64</v>
+      <c r="B27" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>60</v>
+      <c r="B34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>61</v>
+      <c r="B35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/FILES/TV_GPIO配置.xlsx
+++ b/FILES/TV_GPIO配置.xlsx
@@ -153,15 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PF5</t>
-  </si>
-  <si>
-    <t>PF6</t>
-  </si>
-  <si>
-    <t>PF10</t>
-  </si>
-  <si>
     <t>开发板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PF4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PF0(PB8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +323,22 @@
   </si>
   <si>
     <t>PF3(PE14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF4(PB13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF5(PB12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF6(PG6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF10(PG5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,13 +382,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -396,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,12 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -855,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -870,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -895,7 +885,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -906,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>18</v>
@@ -920,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="17"/>
       <c r="N6" s="6"/>
@@ -934,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="17"/>
     </row>
@@ -946,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -958,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -970,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="17"/>
     </row>
@@ -982,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -994,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -1006,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="17"/>
     </row>
@@ -1018,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="18"/>
     </row>
@@ -1029,8 +1019,8 @@
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>78</v>
+      <c r="C15" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>17</v>
@@ -1043,8 +1033,8 @@
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>79</v>
+      <c r="C16" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="D16" s="17"/>
     </row>
@@ -1055,8 +1045,8 @@
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>80</v>
+      <c r="C17" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="D17" s="17"/>
     </row>
@@ -1067,8 +1057,8 @@
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>81</v>
+      <c r="C18" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="D18" s="17"/>
     </row>
@@ -1076,11 +1066,11 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>77</v>
+      <c r="C19" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="D19" s="17"/>
     </row>
@@ -1088,11 +1078,11 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>34</v>
+      <c r="C20" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="17"/>
     </row>
@@ -1100,11 +1090,11 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>35</v>
+      <c r="C21" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="17"/>
     </row>
@@ -1112,11 +1102,11 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>76</v>
+      <c r="C22" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -1124,11 +1114,11 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
+      <c r="C23" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="D23" s="17"/>
     </row>
@@ -1136,11 +1126,11 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>36</v>
+      <c r="C24" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="D24" s="17"/>
     </row>
@@ -1151,8 +1141,8 @@
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>74</v>
+      <c r="C25" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="18"/>
     </row>
@@ -1161,13 +1151,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1175,13 +1165,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1192,13 +1182,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="12"/>
@@ -1209,13 +1199,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1226,13 +1216,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1243,13 +1233,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -1260,13 +1250,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1277,13 +1267,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1294,13 +1284,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1311,13 +1301,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="10"/>
@@ -1328,10 +1318,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>25</v>
@@ -1345,7 +1335,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>26</v>
@@ -1365,10 +1355,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>

--- a/FILES/TV_GPIO配置.xlsx
+++ b/FILES/TV_GPIO配置.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="4" r:id="rId1"/>
-    <sheet name="观光车" sheetId="1" r:id="rId2"/>
+    <sheet name="开发板" sheetId="1" r:id="rId2"/>
+    <sheet name="三合一板子" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PE9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +336,106 @@
   </si>
   <si>
     <t>PF10(PG5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,6 +599,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,15 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -859,24 +956,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
@@ -885,7 +982,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -896,9 +993,9 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -910,9 +1007,9 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="D6" s="20"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -924,9 +1021,9 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2">
@@ -936,9 +1033,9 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
@@ -948,9 +1045,9 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2">
@@ -960,9 +1057,9 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
@@ -972,9 +1069,9 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
@@ -984,9 +1081,9 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1">
       <c r="A13" s="4">
@@ -996,9 +1093,9 @@
         <v>32</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1">
       <c r="A14" s="4">
@@ -1008,9 +1105,9 @@
         <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="4">
@@ -1019,10 +1116,10 @@
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1033,10 +1130,10 @@
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="C16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
@@ -1045,10 +1142,10 @@
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="17"/>
+      <c r="C17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
@@ -1057,82 +1154,82 @@
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="17"/>
+      <c r="C20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="17"/>
+      <c r="C21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="C22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
@@ -1141,23 +1238,23 @@
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1165,13 +1262,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1182,13 +1279,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="12"/>
@@ -1199,13 +1296,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1216,13 +1313,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1233,13 +1330,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -1250,13 +1347,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1267,13 +1364,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -1284,13 +1381,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -1301,13 +1398,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="10"/>
@@ -1318,10 +1415,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>25</v>
@@ -1335,7 +1432,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>26</v>
@@ -1355,10 +1452,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -1382,4 +1479,500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="D15:D25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>